--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7285.20893937075</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H2">
-        <v>7285.20893937075</v>
+        <v>19.845224</v>
       </c>
       <c r="I2">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J2">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.8836636743599</v>
+        <v>22.48784766666667</v>
       </c>
       <c r="N2">
-        <v>14.8836636743599</v>
+        <v>67.463543</v>
       </c>
       <c r="O2">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795984</v>
       </c>
       <c r="P2">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795983</v>
       </c>
       <c r="Q2">
-        <v>108430.5996510344</v>
+        <v>148.7587914076258</v>
       </c>
       <c r="R2">
-        <v>108430.5996510344</v>
+        <v>1338.829122668632</v>
       </c>
       <c r="S2">
-        <v>0.3477434929090277</v>
+        <v>0.0004030992021077427</v>
       </c>
       <c r="T2">
-        <v>0.3477434929090277</v>
+        <v>0.0004030992021077425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7285.20893937075</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H3">
-        <v>7285.20893937075</v>
+        <v>19.845224</v>
       </c>
       <c r="I3">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J3">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.2125934472654</v>
+        <v>23.26810333333333</v>
       </c>
       <c r="N3">
-        <v>23.2125934472654</v>
+        <v>69.80431</v>
       </c>
       <c r="O3">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="P3">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="Q3">
-        <v>169108.5932879968</v>
+        <v>153.9202409017156</v>
       </c>
       <c r="R3">
-        <v>169108.5932879968</v>
+        <v>1385.28216811544</v>
       </c>
       <c r="S3">
-        <v>0.5423414893965234</v>
+        <v>0.0004170854422021909</v>
       </c>
       <c r="T3">
-        <v>0.5423414893965234</v>
+        <v>0.0004170854422021908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7285.20893937075</v>
+        <v>6.615074666666668</v>
       </c>
       <c r="H4">
-        <v>7285.20893937075</v>
+        <v>19.845224</v>
       </c>
       <c r="I4">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469992</v>
       </c>
       <c r="J4">
-        <v>0.9829209623807684</v>
+        <v>0.0008916467884469989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.97344460067463</v>
+        <v>3.986685666666666</v>
       </c>
       <c r="N4">
-        <v>3.97344460067463</v>
+        <v>11.960057</v>
       </c>
       <c r="O4">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124609</v>
       </c>
       <c r="P4">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124607</v>
       </c>
       <c r="Q4">
-        <v>28947.37412492925</v>
+        <v>26.37222335752978</v>
       </c>
       <c r="R4">
-        <v>28947.37412492925</v>
+        <v>237.350010217768</v>
       </c>
       <c r="S4">
-        <v>0.09283598007521739</v>
+        <v>7.146214413706559E-05</v>
       </c>
       <c r="T4">
-        <v>0.09283598007521739</v>
+        <v>7.146214413706557E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.58633023565</v>
+        <v>7285.701009</v>
       </c>
       <c r="H5">
-        <v>126.58633023565</v>
+        <v>21857.103027</v>
       </c>
       <c r="I5">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477925</v>
       </c>
       <c r="J5">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.8836636743599</v>
+        <v>22.48784766666667</v>
       </c>
       <c r="N5">
-        <v>14.8836636743599</v>
+        <v>67.463543</v>
       </c>
       <c r="O5">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795984</v>
       </c>
       <c r="P5">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795983</v>
       </c>
       <c r="Q5">
-        <v>1884.06836499887</v>
+        <v>163839.7344352716</v>
       </c>
       <c r="R5">
-        <v>1884.06836499887</v>
+        <v>1474557.609917445</v>
       </c>
       <c r="S5">
-        <v>0.006042321228810594</v>
+        <v>0.4439647942784837</v>
       </c>
       <c r="T5">
-        <v>0.006042321228810594</v>
+        <v>0.4439647942784835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.58633023565</v>
+        <v>7285.701009</v>
       </c>
       <c r="H6">
-        <v>126.58633023565</v>
+        <v>21857.103027</v>
       </c>
       <c r="I6">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477925</v>
       </c>
       <c r="J6">
-        <v>0.01707903761923153</v>
+        <v>0.9820406017477923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2125934472654</v>
+        <v>23.26810333333333</v>
       </c>
       <c r="N6">
-        <v>23.2125934472654</v>
+        <v>69.80431</v>
       </c>
       <c r="O6">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="P6">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="Q6">
-        <v>2938.397019741423</v>
+        <v>169524.4439331829</v>
       </c>
       <c r="R6">
-        <v>2938.397019741423</v>
+        <v>1525719.995398646</v>
       </c>
       <c r="S6">
-        <v>0.009423617009284072</v>
+        <v>0.4593689384042801</v>
       </c>
       <c r="T6">
-        <v>0.009423617009284072</v>
+        <v>0.4593689384042799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7285.701009</v>
+      </c>
+      <c r="H7">
+        <v>21857.103027</v>
+      </c>
+      <c r="I7">
+        <v>0.9820406017477925</v>
+      </c>
+      <c r="J7">
+        <v>0.9820406017477923</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.986685666666666</v>
+      </c>
+      <c r="N7">
+        <v>11.960057</v>
+      </c>
+      <c r="O7">
+        <v>0.08014624744124609</v>
+      </c>
+      <c r="P7">
+        <v>0.08014624744124607</v>
+      </c>
+      <c r="Q7">
+        <v>29045.79978419917</v>
+      </c>
+      <c r="R7">
+        <v>261412.1980577925</v>
+      </c>
+      <c r="S7">
+        <v>0.07870686906502879</v>
+      </c>
+      <c r="T7">
+        <v>0.07870686906502875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H8">
+        <v>379.873909</v>
+      </c>
+      <c r="I8">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J8">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>22.48784766666667</v>
+      </c>
+      <c r="N8">
+        <v>67.463543</v>
+      </c>
+      <c r="O8">
+        <v>0.4520839499795984</v>
+      </c>
+      <c r="P8">
+        <v>0.4520839499795983</v>
+      </c>
+      <c r="Q8">
+        <v>2847.515532711066</v>
+      </c>
+      <c r="R8">
+        <v>25627.63979439959</v>
+      </c>
+      <c r="S8">
+        <v>0.007716056499006978</v>
+      </c>
+      <c r="T8">
+        <v>0.007716056499006974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>126.58633023565</v>
-      </c>
-      <c r="H7">
-        <v>126.58633023565</v>
-      </c>
-      <c r="I7">
-        <v>0.01707903761923153</v>
-      </c>
-      <c r="J7">
-        <v>0.01707903761923153</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.97344460067463</v>
-      </c>
-      <c r="N7">
-        <v>3.97344460067463</v>
-      </c>
-      <c r="O7">
-        <v>0.09444907945635425</v>
-      </c>
-      <c r="P7">
-        <v>0.09444907945635425</v>
-      </c>
-      <c r="Q7">
-        <v>502.9837703940591</v>
-      </c>
-      <c r="R7">
-        <v>502.9837703940591</v>
-      </c>
-      <c r="S7">
-        <v>0.001613099381136862</v>
-      </c>
-      <c r="T7">
-        <v>0.001613099381136862</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H9">
+        <v>379.873909</v>
+      </c>
+      <c r="I9">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J9">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.26810333333333</v>
+      </c>
+      <c r="N9">
+        <v>69.80431</v>
+      </c>
+      <c r="O9">
+        <v>0.4677698025791556</v>
+      </c>
+      <c r="P9">
+        <v>0.4677698025791556</v>
+      </c>
+      <c r="Q9">
+        <v>2946.315122749755</v>
+      </c>
+      <c r="R9">
+        <v>26516.83610474779</v>
+      </c>
+      <c r="S9">
+        <v>0.007983778732673405</v>
+      </c>
+      <c r="T9">
+        <v>0.007983778732673402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>126.6246363333333</v>
+      </c>
+      <c r="H10">
+        <v>379.873909</v>
+      </c>
+      <c r="I10">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="J10">
+        <v>0.01706775146376063</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.986685666666666</v>
+      </c>
+      <c r="N10">
+        <v>11.960057</v>
+      </c>
+      <c r="O10">
+        <v>0.08014624744124609</v>
+      </c>
+      <c r="P10">
+        <v>0.08014624744124607</v>
+      </c>
+      <c r="Q10">
+        <v>504.8126227169792</v>
+      </c>
+      <c r="R10">
+        <v>4543.313604452813</v>
+      </c>
+      <c r="S10">
+        <v>0.001367916232080249</v>
+      </c>
+      <c r="T10">
+        <v>0.001367916232080249</v>
       </c>
     </row>
   </sheetData>
